--- a/Classification Results/Augmented Data/CORT ONLY VPOP Classification/By Diagnosis/CORT ONLY VPOP Classification Summary (StandardizeAll).xlsx
+++ b/Classification Results/Augmented Data/CORT ONLY VPOP Classification/By Diagnosis/CORT ONLY VPOP Classification Summary (StandardizeAll).xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopher/Documents/PTSD/NCDE Model/Classification Results/Augmented Data/CORT ONLY VPOP Classification/By Diagnosis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58CFFC3-0BFF-CB4C-9317-440F2956A06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9C1497-030E-8144-B084-2A33A14F7AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9400" yWindow="500" windowWidth="19400" windowHeight="16660" xr2:uid="{064A12D9-DF30-0A45-B172-879C6B680B9E}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="38400" windowHeight="20260" activeTab="2" xr2:uid="{064A12D9-DF30-0A45-B172-879C6B680B9E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Histogram Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Graphs" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="22">
   <si>
     <t>Control</t>
   </si>
@@ -85,12 +87,30 @@
   <si>
     <t>Uniform Noise - 1%</t>
   </si>
+  <si>
+    <t>10% Noise</t>
+  </si>
+  <si>
+    <t>5% Noise</t>
+  </si>
+  <si>
+    <t>1% Noise</t>
+  </si>
+  <si>
+    <t>Bin</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Bins</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -122,6 +142,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -131,7 +171,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -260,11 +300,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -306,6 +366,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -321,6 +412,7541 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Comparative Histogram - By Noise Magnitude &amp; Iterations</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>10% Noise - 100 Iter</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Histogram Data'!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Histogram Data'!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8FD9-ED4A-A428-639FE1DBE9E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>10% Noise - 200 Iter</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Histogram Data'!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Histogram Data'!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8FD9-ED4A-A428-639FE1DBE9E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>5% Noise - 100 Iter</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Histogram Data'!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Histogram Data'!$D$4:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8FD9-ED4A-A428-639FE1DBE9E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>5% Noise - 200 Iter</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Histogram Data'!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Histogram Data'!$E$4:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8FD9-ED4A-A428-639FE1DBE9E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>1% Noise - 100 Iter</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Histogram Data'!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Histogram Data'!$F$4:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8FD9-ED4A-A428-639FE1DBE9E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>1% Noise - 200 Iter</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Histogram Data'!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Histogram Data'!$G$4:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8FD9-ED4A-A428-639FE1DBE9E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="539565040"/>
+        <c:axId val="539567040"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="539565040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539567040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="539567040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539565040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Comparative Histogram - 10%</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> Noise</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>10% Noise - 100 Iter</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Histogram Data'!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Histogram Data'!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-15A7-534E-8528-CFC6B8E63638}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>10% Noise - 200 Iter</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Histogram Data'!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Histogram Data'!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-15A7-534E-8528-CFC6B8E63638}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="539565040"/>
+        <c:axId val="539567040"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="539565040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539567040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="539567040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539565040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Comparative Histogram - 5% Noise</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>5% Noise - 100 Iter</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Histogram Data'!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Histogram Data'!$D$4:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F612-AE46-9639-F1ED7EE465CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>5% Noise - 200 Iter</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Histogram Data'!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Histogram Data'!$E$4:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F612-AE46-9639-F1ED7EE465CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="539565040"/>
+        <c:axId val="539567040"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="539565040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539567040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="539567040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539565040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Comparative Histogram - 1% Noise</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1% Noise - 100 Iter</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Histogram Data'!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Histogram Data'!$F$4:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0155-AE48-A147-473945CF8B59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>1% Noise - 200 Iter</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Histogram Data'!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Histogram Data'!$G$4:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0155-AE48-A147-473945CF8B59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="539565040"/>
+        <c:axId val="539567040"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="539565040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539567040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="539567040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539565040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Individual Histogram - 10%</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> Noise (200 Iterations)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>10% Noise - 200 Iter</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Histogram Data'!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Histogram Data'!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E704-8B42-B178-8954CD70CE7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="539565040"/>
+        <c:axId val="539567040"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="539565040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539567040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="539567040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539565040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Individual Histogram - 5% Noise (200 Iterations)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>5% Noise - 200 Iter</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Histogram Data'!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Histogram Data'!$E$4:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3202-6349-9B36-DC911B4731D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="539565040"/>
+        <c:axId val="539567040"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="539565040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539567040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="539567040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539565040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Individual Histogram - 1% Noise (200 Iterations)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1% Noise - 200 Iter</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Histogram Data'!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Histogram Data'!$G$4:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-835A-8C4C-BF46-A626B68F7946}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="539565040"/>
+        <c:axId val="539567040"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="539565040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539567040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="539567040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539565040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43FD8CC0-7E5D-DC46-9583-758A182D63C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E496F75-F7B5-5B4D-B94C-9B54880A99ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09A829B7-9EC4-A74F-B385-8E477078325E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27F0D49C-A169-D442-9992-1DB67473EBDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C72E5F86-F61C-3C47-96CB-82BC597FFAE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{844D9467-BD49-A44C-B963-A2ED2692A03E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A1C6C3E-650E-2746-9A12-4E8538C9BC9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -620,33 +8246,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF02A33-AEE7-C74D-B125-3664DD3F27B5}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="8.33203125" customWidth="1"/>
     <col min="3" max="5" width="15" customWidth="1"/>
+    <col min="10" max="12" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
+      <c r="H1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
-    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
+      <c r="H2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="N2" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
         <v>0</v>
@@ -663,8 +8303,25 @@
       <c r="F3" s="13" t="s">
         <v>1</v>
       </c>
+      <c r="H3" s="1"/>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="28"/>
+      <c r="N3" s="5">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -673,67 +8330,167 @@
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="20"/>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="5">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
+      <c r="C5" s="4">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4</v>
+      </c>
+      <c r="E5" s="4">
+        <v>5</v>
+      </c>
       <c r="F5" s="4">
         <f>SUM(C5:E5)/30</f>
-        <v>0</v>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="4">
+        <f>C5/10</f>
+        <v>0.4</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" ref="K5:L6" si="0">D5/10</f>
+        <v>0.4</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="M5" s="29"/>
+      <c r="N5" s="5">
+        <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="C6" s="5">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5">
+        <v>5</v>
+      </c>
       <c r="F6" s="4">
         <f>SUM(C6:E6)/30</f>
-        <v>0</v>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="4">
+        <f>C6/10</f>
+        <v>0.6</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="29"/>
+      <c r="N6" s="5">
+        <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="14"/>
-      <c r="C7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="C7" s="5">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5">
+        <v>5</v>
+      </c>
       <c r="F7" s="7">
         <f>SUM(C7:E7)/27</f>
-        <v>0</v>
+        <v>0.59259259259259256</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="31"/>
+      <c r="J7" s="6">
+        <f>C7/9</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="K7" s="6">
+        <f t="shared" ref="K7:L7" si="1">D7/9</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L7" s="6">
+        <f t="shared" si="1"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="M7" s="29"/>
+      <c r="N7" s="5">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="7">
         <f>SUM(C5:C7)/29</f>
-        <v>0</v>
+        <v>0.51724137931034486</v>
       </c>
       <c r="D8" s="7">
-        <f t="shared" ref="D8:E8" si="0">SUM(D5:D7)/29</f>
-        <v>0</v>
+        <f t="shared" ref="D8:E8" si="2">SUM(D5:D7)/29</f>
+        <v>0.51724137931034486</v>
       </c>
       <c r="E8" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.51724137931034486</v>
       </c>
       <c r="F8" s="10">
         <f>SUM(C5:E7)/87</f>
-        <v>0</v>
+        <v>0.51724137931034486</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="5">
+        <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="E9" s="4" t="s">
@@ -741,10 +8498,18 @@
       </c>
       <c r="F9" s="7">
         <f>SUM(C5:E7)</f>
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="5">
+        <v>0.7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="E10" s="6" t="s">
@@ -752,17 +8517,33 @@
       </c>
       <c r="F10" s="7">
         <f>SUM(-F9, 87)</f>
-        <v>87</v>
+        <v>42</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="5">
+        <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
+      <c r="H11" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="N11" s="5">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
         <v>0</v>
@@ -779,8 +8560,25 @@
       <c r="F12" s="13" t="s">
         <v>1</v>
       </c>
+      <c r="H12" s="1"/>
+      <c r="I12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="28"/>
+      <c r="N12" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -789,67 +8587,152 @@
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="20"/>
+      <c r="H13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="28"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="12"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
+      <c r="C14" s="4">
+        <v>4</v>
+      </c>
+      <c r="D14" s="3">
+        <v>4</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4</v>
+      </c>
       <c r="F14" s="4">
         <f>SUM(C14:E14)/30</f>
-        <v>0</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="12"/>
+      <c r="J14" s="4">
+        <f>C14/10</f>
+        <v>0.4</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" ref="K14:K15" si="3">D14/10</f>
+        <v>0.4</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" ref="L14:L15" si="4">E14/10</f>
+        <v>0.4</v>
+      </c>
+      <c r="M14" s="29"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="14"/>
-      <c r="C15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="C15" s="5">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15" s="5">
+        <v>3</v>
+      </c>
       <c r="F15" s="4">
         <f>SUM(C15:E15)/30</f>
-        <v>0</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="J15" s="4">
+        <f>C15/10</f>
+        <v>0.6</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+      <c r="L15" s="4">
+        <f t="shared" si="4"/>
+        <v>0.3</v>
+      </c>
+      <c r="M15" s="29"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="14"/>
-      <c r="C16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="C16" s="5">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16" s="5">
+        <v>5</v>
+      </c>
       <c r="F16" s="7">
         <f>SUM(C16:E16)/27</f>
-        <v>0</v>
-      </c>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="31"/>
+      <c r="J16" s="6">
+        <f>C16/9</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="K16" s="6">
+        <f t="shared" ref="K16" si="5">D16/9</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="L16" s="6">
+        <f t="shared" ref="L16" si="6">E16/9</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="M16" s="29"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="7">
         <f>SUM(C14:C16)/29</f>
-        <v>0</v>
+        <v>0.51724137931034486</v>
       </c>
       <c r="D17" s="7">
-        <f t="shared" ref="D17" si="1">SUM(D14:D16)/29</f>
-        <v>0</v>
+        <f t="shared" ref="D17" si="7">SUM(D14:D16)/29</f>
+        <v>0.51724137931034486</v>
       </c>
       <c r="E17" s="7">
-        <f t="shared" ref="E17" si="2">SUM(E14:E16)/29</f>
-        <v>0</v>
+        <f t="shared" ref="E17" si="8">SUM(E14:E16)/29</f>
+        <v>0.41379310344827586</v>
       </c>
       <c r="F17" s="10">
         <f>SUM(C14:E16)/87</f>
-        <v>0</v>
-      </c>
+        <v>0.48275862068965519</v>
+      </c>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="30"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="E18" s="4" t="s">
@@ -857,10 +8740,15 @@
       </c>
       <c r="F18" s="7">
         <f>SUM(C14:E16)</f>
-        <v>0</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="E19" s="6" t="s">
@@ -868,24 +8756,39 @@
       </c>
       <c r="F19" s="7">
         <f>SUM(-F18, 87)</f>
-        <v>87</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
     </row>
-    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
+      <c r="H20" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
     </row>
-    <row r="21" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
+      <c r="H21" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
     </row>
-    <row r="22" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" t="s">
         <v>0</v>
@@ -902,8 +8805,22 @@
       <c r="F22" s="13" t="s">
         <v>1</v>
       </c>
+      <c r="H22" s="1"/>
+      <c r="I22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M22" s="28"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -912,67 +8829,152 @@
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
       <c r="F23" s="20"/>
+      <c r="H23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="28"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="12"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="4"/>
+      <c r="C24" s="4">
+        <v>3</v>
+      </c>
+      <c r="D24" s="3">
+        <v>5</v>
+      </c>
+      <c r="E24" s="4">
+        <v>5</v>
+      </c>
       <c r="F24" s="4">
         <f>SUM(C24:E24)/30</f>
-        <v>0</v>
-      </c>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="12"/>
+      <c r="J24" s="4">
+        <f>C24/10</f>
+        <v>0.3</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" ref="K24:K25" si="9">D24/10</f>
+        <v>0.5</v>
+      </c>
+      <c r="L24" s="4">
+        <f t="shared" ref="L24:L25" si="10">E24/10</f>
+        <v>0.5</v>
+      </c>
+      <c r="M24" s="29"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="14"/>
-      <c r="C25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="C25" s="5">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25" s="5">
+        <v>4</v>
+      </c>
       <c r="F25" s="4">
         <f>SUM(C25:E25)/30</f>
-        <v>0</v>
-      </c>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="14"/>
+      <c r="J25" s="4">
+        <f>C25/10</f>
+        <v>0.7</v>
+      </c>
+      <c r="K25" s="4">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="L25" s="4">
+        <f t="shared" si="10"/>
+        <v>0.4</v>
+      </c>
+      <c r="M25" s="29"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="14"/>
-      <c r="C26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="C26" s="5">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26" s="5">
+        <v>5</v>
+      </c>
       <c r="F26" s="7">
         <f>SUM(C26:E26)/27</f>
-        <v>0</v>
-      </c>
+        <v>0.62962962962962965</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="31"/>
+      <c r="J26" s="6">
+        <f>C26/9</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K26" s="6">
+        <f t="shared" ref="K26" si="11">D26/9</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L26" s="6">
+        <f t="shared" ref="L26" si="12">E26/9</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="M26" s="29"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B27" s="15"/>
       <c r="C27" s="7">
         <f>SUM(C24:C26)/29</f>
-        <v>0</v>
+        <v>0.55172413793103448</v>
       </c>
       <c r="D27" s="7">
-        <f t="shared" ref="D27" si="3">SUM(D24:D26)/29</f>
-        <v>0</v>
+        <f t="shared" ref="D27" si="13">SUM(D24:D26)/29</f>
+        <v>0.55172413793103448</v>
       </c>
       <c r="E27" s="7">
-        <f t="shared" ref="E27" si="4">SUM(E24:E26)/29</f>
-        <v>0</v>
+        <f t="shared" ref="E27" si="14">SUM(E24:E26)/29</f>
+        <v>0.48275862068965519</v>
       </c>
       <c r="F27" s="10">
         <f>SUM(C24:E26)/87</f>
-        <v>0</v>
-      </c>
+        <v>0.52873563218390807</v>
+      </c>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="30"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="E28" s="4" t="s">
@@ -980,10 +8982,15 @@
       </c>
       <c r="F28" s="7">
         <f>SUM(C24:E26)</f>
-        <v>0</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="E29" s="6" t="s">
@@ -991,17 +8998,27 @@
       </c>
       <c r="F29" s="7">
         <f>SUM(-F28, 87)</f>
-        <v>87</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
     </row>
-    <row r="30" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
+      <c r="H30" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
     </row>
-    <row r="31" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" t="s">
         <v>0</v>
@@ -1018,8 +9035,22 @@
       <c r="F31" s="13" t="s">
         <v>1</v>
       </c>
+      <c r="H31" s="1"/>
+      <c r="I31" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K31" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L31" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M31" s="28"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -1028,67 +9059,152 @@
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
       <c r="F32" s="20"/>
+      <c r="H32" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="28"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B33" s="12"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="4"/>
+      <c r="C33" s="4">
+        <v>3</v>
+      </c>
+      <c r="D33" s="3">
+        <v>4</v>
+      </c>
+      <c r="E33" s="4">
+        <v>5</v>
+      </c>
       <c r="F33" s="4">
         <f>SUM(C33:E33)/30</f>
-        <v>0</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="12"/>
+      <c r="J33" s="4">
+        <f>C33/10</f>
+        <v>0.3</v>
+      </c>
+      <c r="K33" s="4">
+        <f t="shared" ref="K33:K34" si="15">D33/10</f>
+        <v>0.4</v>
+      </c>
+      <c r="L33" s="4">
+        <f t="shared" ref="L33:L34" si="16">E33/10</f>
+        <v>0.5</v>
+      </c>
+      <c r="M33" s="29"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B34" s="14"/>
-      <c r="C34" s="5"/>
-      <c r="E34" s="5"/>
+      <c r="C34" s="5">
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34" s="5">
+        <v>4</v>
+      </c>
       <c r="F34" s="4">
         <f>SUM(C34:E34)/30</f>
-        <v>0</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" s="14"/>
+      <c r="J34" s="4">
+        <f>C34/10</f>
+        <v>0.6</v>
+      </c>
+      <c r="K34" s="4">
+        <f t="shared" si="15"/>
+        <v>0.5</v>
+      </c>
+      <c r="L34" s="4">
+        <f t="shared" si="16"/>
+        <v>0.4</v>
+      </c>
+      <c r="M34" s="29"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B35" s="14"/>
-      <c r="C35" s="5"/>
-      <c r="E35" s="5"/>
+      <c r="C35" s="5">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+      <c r="E35" s="5">
+        <v>4</v>
+      </c>
       <c r="F35" s="7">
         <f>SUM(C35:E35)/27</f>
-        <v>0</v>
-      </c>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="31"/>
+      <c r="J35" s="6">
+        <f>C35/9</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="K35" s="6">
+        <f t="shared" ref="K35" si="17">D35/9</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L35" s="6">
+        <f t="shared" ref="L35" si="18">E35/9</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="M35" s="29"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="7">
         <f>SUM(C33:C35)/29</f>
-        <v>0</v>
+        <v>0.48275862068965519</v>
       </c>
       <c r="D36" s="7">
-        <f t="shared" ref="D36" si="5">SUM(D33:D35)/29</f>
-        <v>0</v>
+        <f t="shared" ref="D36" si="19">SUM(D33:D35)/29</f>
+        <v>0.51724137931034486</v>
       </c>
       <c r="E36" s="7">
-        <f t="shared" ref="E36" si="6">SUM(E33:E35)/29</f>
-        <v>0</v>
+        <f t="shared" ref="E36" si="20">SUM(E33:E35)/29</f>
+        <v>0.44827586206896552</v>
       </c>
       <c r="F36" s="10">
         <f>SUM(C33:E35)/87</f>
-        <v>0</v>
-      </c>
+        <v>0.48275862068965519</v>
+      </c>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="30"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="E37" s="4" t="s">
@@ -1096,10 +9212,15 @@
       </c>
       <c r="F37" s="7">
         <f>SUM(C33:E35)</f>
-        <v>0</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="E38" s="6" t="s">
@@ -1107,24 +9228,39 @@
       </c>
       <c r="F38" s="7">
         <f>SUM(-F37, 87)</f>
-        <v>87</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
     </row>
-    <row r="39" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
+      <c r="H39" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
     </row>
-    <row r="40" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
+      <c r="H40" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
     </row>
-    <row r="41" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="26" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" t="s">
         <v>0</v>
@@ -1141,8 +9277,22 @@
       <c r="F41" s="13" t="s">
         <v>1</v>
       </c>
+      <c r="H41" s="1"/>
+      <c r="I41" t="s">
+        <v>0</v>
+      </c>
+      <c r="J41" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K41" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L41" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M41" s="28"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -1151,67 +9301,152 @@
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
       <c r="F42" s="20"/>
+      <c r="H42" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="28"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B43" s="12"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="4"/>
+      <c r="C43" s="4">
+        <v>3</v>
+      </c>
+      <c r="D43" s="3">
+        <v>4</v>
+      </c>
+      <c r="E43" s="4">
+        <v>5</v>
+      </c>
       <c r="F43" s="4">
         <f>SUM(C43:E43)/30</f>
-        <v>0</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" s="12"/>
+      <c r="J43" s="4">
+        <f>C43/10</f>
+        <v>0.3</v>
+      </c>
+      <c r="K43" s="4">
+        <f t="shared" ref="K43:K44" si="21">D43/10</f>
+        <v>0.4</v>
+      </c>
+      <c r="L43" s="4">
+        <f t="shared" ref="L43:L44" si="22">E43/10</f>
+        <v>0.5</v>
+      </c>
+      <c r="M43" s="29"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B44" s="14"/>
-      <c r="C44" s="5"/>
-      <c r="E44" s="5"/>
+      <c r="C44" s="5">
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <v>6</v>
+      </c>
+      <c r="E44" s="5">
+        <v>5</v>
+      </c>
       <c r="F44" s="4">
         <f>SUM(C44:E44)/30</f>
-        <v>0</v>
-      </c>
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" s="14"/>
+      <c r="J44" s="4">
+        <f>C44/10</f>
+        <v>0.6</v>
+      </c>
+      <c r="K44" s="4">
+        <f t="shared" si="21"/>
+        <v>0.6</v>
+      </c>
+      <c r="L44" s="4">
+        <f t="shared" si="22"/>
+        <v>0.5</v>
+      </c>
+      <c r="M44" s="29"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B45" s="14"/>
-      <c r="C45" s="5"/>
-      <c r="E45" s="5"/>
+      <c r="C45" s="5">
+        <v>6</v>
+      </c>
+      <c r="D45">
+        <v>6</v>
+      </c>
+      <c r="E45" s="5">
+        <v>5</v>
+      </c>
       <c r="F45" s="7">
         <f>SUM(C45:E45)/27</f>
-        <v>0</v>
-      </c>
+        <v>0.62962962962962965</v>
+      </c>
+      <c r="H45" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" s="31"/>
+      <c r="J45" s="6">
+        <f>C45/9</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K45" s="6">
+        <f t="shared" ref="K45" si="23">D45/9</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L45" s="6">
+        <f t="shared" ref="L45" si="24">E45/9</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="M45" s="29"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B46" s="15"/>
       <c r="C46" s="7">
         <f>SUM(C43:C45)/29</f>
-        <v>0</v>
+        <v>0.51724137931034486</v>
       </c>
       <c r="D46" s="7">
-        <f t="shared" ref="D46:E46" si="7">SUM(D43:D45)/29</f>
-        <v>0</v>
+        <f t="shared" ref="D46:E46" si="25">SUM(D43:D45)/29</f>
+        <v>0.55172413793103448</v>
       </c>
       <c r="E46" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>0.51724137931034486</v>
       </c>
       <c r="F46" s="10">
         <f>SUM(C43:E45)/87</f>
-        <v>0</v>
-      </c>
+        <v>0.52873563218390807</v>
+      </c>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="30"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="E47" s="4" t="s">
@@ -1219,10 +9454,15 @@
       </c>
       <c r="F47" s="7">
         <f>SUM(C43:E45)</f>
-        <v>0</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="E48" s="6" t="s">
@@ -1230,17 +9470,27 @@
       </c>
       <c r="F48" s="7">
         <f>SUM(-F47, 87)</f>
-        <v>87</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
     </row>
-    <row r="49" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
+      <c r="H49" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
     </row>
-    <row r="50" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="26" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" t="s">
         <v>0</v>
@@ -1257,8 +9507,22 @@
       <c r="F50" s="13" t="s">
         <v>1</v>
       </c>
+      <c r="H50" s="1"/>
+      <c r="I50" t="s">
+        <v>0</v>
+      </c>
+      <c r="J50" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K50" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L50" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M50" s="28"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -1267,67 +9531,152 @@
       <c r="D51" s="18"/>
       <c r="E51" s="18"/>
       <c r="F51" s="20"/>
+      <c r="H51" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51" s="2"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="28"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B52" s="12"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="4"/>
+      <c r="C52" s="4">
+        <v>2</v>
+      </c>
+      <c r="D52" s="3">
+        <v>3</v>
+      </c>
+      <c r="E52" s="4">
+        <v>4</v>
+      </c>
       <c r="F52" s="4">
         <f>SUM(C52:E52)/30</f>
-        <v>0</v>
-      </c>
+        <v>0.3</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" s="12"/>
+      <c r="J52" s="4">
+        <f>C52/10</f>
+        <v>0.2</v>
+      </c>
+      <c r="K52" s="4">
+        <f t="shared" ref="K52:K53" si="26">D52/10</f>
+        <v>0.3</v>
+      </c>
+      <c r="L52" s="4">
+        <f t="shared" ref="L52:L53" si="27">E52/10</f>
+        <v>0.4</v>
+      </c>
+      <c r="M52" s="29"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B53" s="14"/>
-      <c r="C53" s="5"/>
-      <c r="E53" s="5"/>
+      <c r="C53" s="5">
+        <v>6</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53" s="5">
+        <v>4</v>
+      </c>
       <c r="F53" s="4">
         <f>SUM(C53:E53)/30</f>
-        <v>0</v>
-      </c>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" s="14"/>
+      <c r="J53" s="4">
+        <f>C53/10</f>
+        <v>0.6</v>
+      </c>
+      <c r="K53" s="4">
+        <f t="shared" si="26"/>
+        <v>0.4</v>
+      </c>
+      <c r="L53" s="4">
+        <f t="shared" si="27"/>
+        <v>0.4</v>
+      </c>
+      <c r="M53" s="29"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B54" s="14"/>
-      <c r="C54" s="5"/>
-      <c r="E54" s="5"/>
+      <c r="C54" s="5">
+        <v>6</v>
+      </c>
+      <c r="D54">
+        <v>6</v>
+      </c>
+      <c r="E54" s="5">
+        <v>5</v>
+      </c>
       <c r="F54" s="7">
         <f>SUM(C54:E54)/27</f>
-        <v>0</v>
-      </c>
+        <v>0.62962962962962965</v>
+      </c>
+      <c r="H54" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" s="31"/>
+      <c r="J54" s="6">
+        <f>C54/9</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K54" s="6">
+        <f t="shared" ref="K54" si="28">D54/9</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L54" s="6">
+        <f t="shared" ref="L54" si="29">E54/9</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="M54" s="29"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B55" s="15"/>
       <c r="C55" s="7">
         <f>SUM(C52:C54)/29</f>
-        <v>0</v>
+        <v>0.48275862068965519</v>
       </c>
       <c r="D55" s="7">
-        <f t="shared" ref="D55:E55" si="8">SUM(D52:D54)/29</f>
-        <v>0</v>
+        <f t="shared" ref="D55:E55" si="30">SUM(D52:D54)/29</f>
+        <v>0.44827586206896552</v>
       </c>
       <c r="E55" s="7">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>0.44827586206896552</v>
       </c>
       <c r="F55" s="10">
         <f>SUM(C52:E54)/87</f>
-        <v>0</v>
-      </c>
+        <v>0.45977011494252873</v>
+      </c>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="30"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="E56" s="4" t="s">
@@ -1335,10 +9684,15 @@
       </c>
       <c r="F56" s="7">
         <f>SUM(C52:E54)</f>
-        <v>0</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="29"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="E57" s="6" t="s">
@@ -1346,11 +9700,72 @@
       </c>
       <c r="F57" s="7">
         <f>SUM(-F56, 87)</f>
-        <v>87</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="112">
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A34:B34"/>
@@ -1410,4 +9825,331 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A0D27D-C395-1B43-A938-BBA92CF1666B}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="7" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="21"/>
+      <c r="B1" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="22"/>
+    </row>
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
+      <c r="B2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="B4" s="39">
+        <v>0</v>
+      </c>
+      <c r="C4" s="34">
+        <v>0</v>
+      </c>
+      <c r="D4" s="39">
+        <v>0</v>
+      </c>
+      <c r="E4" s="34">
+        <v>0</v>
+      </c>
+      <c r="F4" s="39">
+        <v>0</v>
+      </c>
+      <c r="G4" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="B5" s="40">
+        <v>0</v>
+      </c>
+      <c r="C5" s="32">
+        <v>0</v>
+      </c>
+      <c r="D5" s="40">
+        <v>0</v>
+      </c>
+      <c r="E5" s="32">
+        <v>0</v>
+      </c>
+      <c r="F5" s="40">
+        <v>0</v>
+      </c>
+      <c r="G5" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="B6" s="40">
+        <v>0</v>
+      </c>
+      <c r="C6" s="32">
+        <v>1</v>
+      </c>
+      <c r="D6" s="40">
+        <v>1</v>
+      </c>
+      <c r="E6" s="32">
+        <v>1</v>
+      </c>
+      <c r="F6" s="40">
+        <v>1</v>
+      </c>
+      <c r="G6" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="B7" s="40">
+        <v>2</v>
+      </c>
+      <c r="C7" s="32">
+        <v>3</v>
+      </c>
+      <c r="D7" s="40">
+        <v>1</v>
+      </c>
+      <c r="E7" s="32">
+        <v>2</v>
+      </c>
+      <c r="F7" s="40">
+        <v>1</v>
+      </c>
+      <c r="G7" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="B8" s="40">
+        <v>3</v>
+      </c>
+      <c r="C8" s="32">
+        <v>0</v>
+      </c>
+      <c r="D8" s="40">
+        <v>3</v>
+      </c>
+      <c r="E8" s="32">
+        <v>3</v>
+      </c>
+      <c r="F8" s="40">
+        <v>2</v>
+      </c>
+      <c r="G8" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="B9" s="40">
+        <v>3</v>
+      </c>
+      <c r="C9" s="32">
+        <v>5</v>
+      </c>
+      <c r="D9" s="40">
+        <v>1</v>
+      </c>
+      <c r="E9" s="32">
+        <v>2</v>
+      </c>
+      <c r="F9" s="40">
+        <v>3</v>
+      </c>
+      <c r="G9" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="26">
+        <v>0.7</v>
+      </c>
+      <c r="B10" s="40">
+        <v>1</v>
+      </c>
+      <c r="C10" s="32">
+        <v>0</v>
+      </c>
+      <c r="D10" s="40">
+        <v>3</v>
+      </c>
+      <c r="E10" s="32">
+        <v>1</v>
+      </c>
+      <c r="F10" s="40">
+        <v>2</v>
+      </c>
+      <c r="G10" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="B11" s="40">
+        <v>0</v>
+      </c>
+      <c r="C11" s="32">
+        <v>0</v>
+      </c>
+      <c r="D11" s="40">
+        <v>0</v>
+      </c>
+      <c r="E11" s="32">
+        <v>0</v>
+      </c>
+      <c r="F11" s="40">
+        <v>0</v>
+      </c>
+      <c r="G11" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="B12" s="40">
+        <v>0</v>
+      </c>
+      <c r="C12" s="32">
+        <v>0</v>
+      </c>
+      <c r="D12" s="40">
+        <v>0</v>
+      </c>
+      <c r="E12" s="32">
+        <v>0</v>
+      </c>
+      <c r="F12" s="40">
+        <v>0</v>
+      </c>
+      <c r="G12" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="27">
+        <v>1</v>
+      </c>
+      <c r="B13" s="41">
+        <v>0</v>
+      </c>
+      <c r="C13" s="37">
+        <v>0</v>
+      </c>
+      <c r="D13" s="41">
+        <v>0</v>
+      </c>
+      <c r="E13" s="37">
+        <v>0</v>
+      </c>
+      <c r="F13" s="41">
+        <v>0</v>
+      </c>
+      <c r="G13" s="38">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685DE034-87C3-A145-AAF3-CA2794623896}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>